--- a/ИЗМЕНЕНИЯ В БАЗЕ/Закрытие договоров о социальном обслуживании/Журнал старых значений/2020 Вятскополянский район (Вятские поляны все).xlsx
+++ b/ИЗМЕНЕНИЯ В БАЗЕ/Закрытие договоров о социальном обслуживании/Журнал старых значений/2020 Вятскополянский район (Вятские поляны все).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15396" uniqueCount="5067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15810" uniqueCount="5213">
   <si>
     <t>OUID</t>
   </si>
@@ -15220,6 +15220,444 @@
   </si>
   <si>
     <t>2021-02-01 09:08:02.360</t>
+  </si>
+  <si>
+    <t>8271538</t>
+  </si>
+  <si>
+    <t>2019-10-03 15:41:10.707</t>
+  </si>
+  <si>
+    <t>2022-09-20 00:00:00.000</t>
+  </si>
+  <si>
+    <t>8544982</t>
+  </si>
+  <si>
+    <t>2020-01-22 08:57:14.723</t>
+  </si>
+  <si>
+    <t>2023-01-16 00:00:00.000</t>
+  </si>
+  <si>
+    <t>8556168</t>
+  </si>
+  <si>
+    <t>2020-01-24 09:45:18.187</t>
+  </si>
+  <si>
+    <t>8556429</t>
+  </si>
+  <si>
+    <t>2020-01-24 09:53:44.867</t>
+  </si>
+  <si>
+    <t>2023-01-17 00:00:00.000</t>
+  </si>
+  <si>
+    <t>8556466</t>
+  </si>
+  <si>
+    <t>2020-01-24 09:59:31.550</t>
+  </si>
+  <si>
+    <t>2023-01-21 00:00:00.000</t>
+  </si>
+  <si>
+    <t>8638078</t>
+  </si>
+  <si>
+    <t>2020-02-18 14:59:51.743</t>
+  </si>
+  <si>
+    <t>2021-02-18 00:00:00.000</t>
+  </si>
+  <si>
+    <t>8659007</t>
+  </si>
+  <si>
+    <t>2020-02-25 17:20:07.210</t>
+  </si>
+  <si>
+    <t>2023-01-28 00:00:00.000</t>
+  </si>
+  <si>
+    <t>8659041</t>
+  </si>
+  <si>
+    <t>2020-02-25 17:34:49.943</t>
+  </si>
+  <si>
+    <t>2023-02-20 00:00:00.000</t>
+  </si>
+  <si>
+    <t>8659054</t>
+  </si>
+  <si>
+    <t>2020-02-25 17:40:02.060</t>
+  </si>
+  <si>
+    <t>8659074</t>
+  </si>
+  <si>
+    <t>2020-02-25 17:45:12.437</t>
+  </si>
+  <si>
+    <t>8680224</t>
+  </si>
+  <si>
+    <t>2020-03-04 01:57:31.083</t>
+  </si>
+  <si>
+    <t>2023-01-28 12:00:00.000</t>
+  </si>
+  <si>
+    <t>8685720</t>
+  </si>
+  <si>
+    <t>2020-03-05 16:04:50.600</t>
+  </si>
+  <si>
+    <t>2021-03-05 00:00:00.000</t>
+  </si>
+  <si>
+    <t>8708217</t>
+  </si>
+  <si>
+    <t>2020-08-31 09:33:32.870</t>
+  </si>
+  <si>
+    <t>2021-02-28 12:00:00.000</t>
+  </si>
+  <si>
+    <t>8770526</t>
+  </si>
+  <si>
+    <t>2020-04-27 13:23:57.860</t>
+  </si>
+  <si>
+    <t>2021-04-30 00:00:00.000</t>
+  </si>
+  <si>
+    <t>9261639</t>
+  </si>
+  <si>
+    <t>2020-10-09 11:02:29.853</t>
+  </si>
+  <si>
+    <t>2023-10-08 00:00:00.000</t>
+  </si>
+  <si>
+    <t>9273378</t>
+  </si>
+  <si>
+    <t>2020-10-14 11:40:10.750</t>
+  </si>
+  <si>
+    <t>2021-10-12 00:00:00.000</t>
+  </si>
+  <si>
+    <t>9381251</t>
+  </si>
+  <si>
+    <t>2020-11-30 16:32:09.890</t>
+  </si>
+  <si>
+    <t>2021-06-01 12:00:00.000</t>
+  </si>
+  <si>
+    <t>9384323</t>
+  </si>
+  <si>
+    <t>2020-12-02 09:46:12.280</t>
+  </si>
+  <si>
+    <t>2021-04-21 00:00:00.000</t>
+  </si>
+  <si>
+    <t>98604</t>
+  </si>
+  <si>
+    <t>2021-01-07 10:49:42.197</t>
+  </si>
+  <si>
+    <t>109207</t>
+  </si>
+  <si>
+    <t>2021-01-12 08:14:59.193</t>
+  </si>
+  <si>
+    <t>109504</t>
+  </si>
+  <si>
+    <t>2021-01-12 08:21:41.733</t>
+  </si>
+  <si>
+    <t>109506</t>
+  </si>
+  <si>
+    <t>2021-02-10 14:02:25.247</t>
+  </si>
+  <si>
+    <t>109508</t>
+  </si>
+  <si>
+    <t>2021-01-12 14:23:54.890</t>
+  </si>
+  <si>
+    <t>2021-02-04 15:36:53.180</t>
+  </si>
+  <si>
+    <t>111694</t>
+  </si>
+  <si>
+    <t>2020-12-08 12:55:16.957</t>
+  </si>
+  <si>
+    <t>111695</t>
+  </si>
+  <si>
+    <t>2020-12-08 13:02:01.543</t>
+  </si>
+  <si>
+    <t>111697</t>
+  </si>
+  <si>
+    <t>2020-12-08 12:41:45.243</t>
+  </si>
+  <si>
+    <t>112288</t>
+  </si>
+  <si>
+    <t>2020-12-08 12:20:04.277</t>
+  </si>
+  <si>
+    <t>112628</t>
+  </si>
+  <si>
+    <t>2021-02-09 15:36:00.087</t>
+  </si>
+  <si>
+    <t>113307</t>
+  </si>
+  <si>
+    <t>2020-09-14 10:17:25.253</t>
+  </si>
+  <si>
+    <t>114950</t>
+  </si>
+  <si>
+    <t>2021-01-12 17:03:50.033</t>
+  </si>
+  <si>
+    <t>118178</t>
+  </si>
+  <si>
+    <t>2021-01-12 16:47:20.173</t>
+  </si>
+  <si>
+    <t>118602</t>
+  </si>
+  <si>
+    <t>2020-12-03 16:41:34.427</t>
+  </si>
+  <si>
+    <t>118735</t>
+  </si>
+  <si>
+    <t>2021-01-11 14:45:54.943</t>
+  </si>
+  <si>
+    <t>120222</t>
+  </si>
+  <si>
+    <t>2020-12-21 11:02:42.707</t>
+  </si>
+  <si>
+    <t>98918</t>
+  </si>
+  <si>
+    <t>2019-10-03 15:41:10.877</t>
+  </si>
+  <si>
+    <t>2020-01-22 08:57:14.920</t>
+  </si>
+  <si>
+    <t>109820</t>
+  </si>
+  <si>
+    <t>2020-01-24 09:45:19.927</t>
+  </si>
+  <si>
+    <t>2020-01-24 09:53:44.990</t>
+  </si>
+  <si>
+    <t>2020-01-24 09:59:31.670</t>
+  </si>
+  <si>
+    <t>111415</t>
+  </si>
+  <si>
+    <t>2020-02-18 14:59:51.830</t>
+  </si>
+  <si>
+    <t>2020-02-25 17:34:50.027</t>
+  </si>
+  <si>
+    <t>2020-02-25 17:40:02.117</t>
+  </si>
+  <si>
+    <t>112013</t>
+  </si>
+  <si>
+    <t>2020-02-25 17:45:12.510</t>
+  </si>
+  <si>
+    <t>112604</t>
+  </si>
+  <si>
+    <t>2020-03-03 16:00:36.053</t>
+  </si>
+  <si>
+    <t>112944</t>
+  </si>
+  <si>
+    <t>2020-03-05 16:04:51.663</t>
+  </si>
+  <si>
+    <t>113623</t>
+  </si>
+  <si>
+    <t>2020-03-16 13:49:48.307</t>
+  </si>
+  <si>
+    <t>2021-02-28 00:00:00.000</t>
+  </si>
+  <si>
+    <t>115266</t>
+  </si>
+  <si>
+    <t>2020-12-01 20:04:37.243</t>
+  </si>
+  <si>
+    <t>118495</t>
+  </si>
+  <si>
+    <t>2023-09-24 00:00:00.000</t>
+  </si>
+  <si>
+    <t>118919</t>
+  </si>
+  <si>
+    <t>2020-10-09 11:02:38.137</t>
+  </si>
+  <si>
+    <t>119052</t>
+  </si>
+  <si>
+    <t>2020-10-14 11:40:10.947</t>
+  </si>
+  <si>
+    <t>120543</t>
+  </si>
+  <si>
+    <t>2020-12-02 09:46:14.553</t>
+  </si>
+  <si>
+    <t>101716</t>
+  </si>
+  <si>
+    <t>2019-10-03 15:41:10.893</t>
+  </si>
+  <si>
+    <t>112662</t>
+  </si>
+  <si>
+    <t>2020-01-22 08:57:14.940</t>
+  </si>
+  <si>
+    <t>2020-01-24 09:45:19.980</t>
+  </si>
+  <si>
+    <t>112961</t>
+  </si>
+  <si>
+    <t>2020-01-24 09:53:45.030</t>
+  </si>
+  <si>
+    <t>112963</t>
+  </si>
+  <si>
+    <t>2020-01-24 09:59:31.690</t>
+  </si>
+  <si>
+    <t>114616</t>
+  </si>
+  <si>
+    <t>2020-02-18 14:59:51.850</t>
+  </si>
+  <si>
+    <t>115215</t>
+  </si>
+  <si>
+    <t>2020-02-25 17:34:50.043</t>
+  </si>
+  <si>
+    <t>115216</t>
+  </si>
+  <si>
+    <t>2020-02-25 17:40:02.133</t>
+  </si>
+  <si>
+    <t>115218</t>
+  </si>
+  <si>
+    <t>2020-02-25 17:45:12.530</t>
+  </si>
+  <si>
+    <t>2020-03-03 16:00:36.073</t>
+  </si>
+  <si>
+    <t>116186</t>
+  </si>
+  <si>
+    <t>2020-03-05 16:04:51.680</t>
+  </si>
+  <si>
+    <t>116942</t>
+  </si>
+  <si>
+    <t>2020-03-16 13:49:48.333</t>
+  </si>
+  <si>
+    <t>118727</t>
+  </si>
+  <si>
+    <t>2020-04-27 13:23:59.883</t>
+  </si>
+  <si>
+    <t>122221</t>
+  </si>
+  <si>
+    <t>2020-09-24 16:46:14.340</t>
+  </si>
+  <si>
+    <t>122663</t>
+  </si>
+  <si>
+    <t>2020-10-09 11:02:38.160</t>
+  </si>
+  <si>
+    <t>122806</t>
+  </si>
+  <si>
+    <t>2020-10-14 11:40:10.983</t>
+  </si>
+  <si>
+    <t>124389</t>
+  </si>
+  <si>
+    <t>2020-12-02 09:46:14.583</t>
   </si>
 </sst>
 </file>
@@ -15236,12 +15674,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -15256,9 +15700,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -15553,10 +15998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2566"/>
+  <dimension ref="A1:F2635"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A2563" workbookViewId="0">
+      <selection activeCell="L2571" sqref="L2571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -66887,6 +67332,1386 @@
         <v>7</v>
       </c>
       <c r="F2566" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:6">
+      <c r="A2567" s="2" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B2567" s="2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="C2567" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2567" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2567" s="2" t="s">
+        <v>5069</v>
+      </c>
+      <c r="F2567" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:6">
+      <c r="A2568" s="2" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B2568" s="2" t="s">
+        <v>5071</v>
+      </c>
+      <c r="C2568" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2568" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2568" s="2" t="s">
+        <v>5072</v>
+      </c>
+      <c r="F2568" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:6">
+      <c r="A2569" s="2" t="s">
+        <v>5073</v>
+      </c>
+      <c r="B2569" s="2" t="s">
+        <v>5074</v>
+      </c>
+      <c r="C2569" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2569" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2569" s="2" t="s">
+        <v>5072</v>
+      </c>
+      <c r="F2569" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:6">
+      <c r="A2570" s="2" t="s">
+        <v>5075</v>
+      </c>
+      <c r="B2570" s="2" t="s">
+        <v>5076</v>
+      </c>
+      <c r="C2570" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2570" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2570" s="2" t="s">
+        <v>5077</v>
+      </c>
+      <c r="F2570" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:6">
+      <c r="A2571" s="2" t="s">
+        <v>5078</v>
+      </c>
+      <c r="B2571" s="2" t="s">
+        <v>5079</v>
+      </c>
+      <c r="C2571" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2571" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2571" s="2" t="s">
+        <v>5080</v>
+      </c>
+      <c r="F2571" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:6">
+      <c r="A2572" s="2" t="s">
+        <v>5081</v>
+      </c>
+      <c r="B2572" s="2" t="s">
+        <v>5082</v>
+      </c>
+      <c r="C2572" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2572" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2572" s="2" t="s">
+        <v>5083</v>
+      </c>
+      <c r="F2572" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:6">
+      <c r="A2573" s="2" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B2573" s="2" t="s">
+        <v>5085</v>
+      </c>
+      <c r="C2573" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2573" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2573" s="2" t="s">
+        <v>5086</v>
+      </c>
+      <c r="F2573" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:6">
+      <c r="A2574" s="2" t="s">
+        <v>5087</v>
+      </c>
+      <c r="B2574" s="2" t="s">
+        <v>5088</v>
+      </c>
+      <c r="C2574" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2574" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2574" s="2" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F2574" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:6">
+      <c r="A2575" s="2" t="s">
+        <v>5090</v>
+      </c>
+      <c r="B2575" s="2" t="s">
+        <v>5091</v>
+      </c>
+      <c r="C2575" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2575" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2575" s="2" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F2575" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:6">
+      <c r="A2576" s="2" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B2576" s="2" t="s">
+        <v>5093</v>
+      </c>
+      <c r="C2576" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2576" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2576" s="2" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F2576" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:6">
+      <c r="A2577" s="2" t="s">
+        <v>5094</v>
+      </c>
+      <c r="B2577" s="2" t="s">
+        <v>5095</v>
+      </c>
+      <c r="C2577" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2577" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E2577" s="2" t="s">
+        <v>5096</v>
+      </c>
+      <c r="F2577" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:6">
+      <c r="A2578" s="2" t="s">
+        <v>5097</v>
+      </c>
+      <c r="B2578" s="2" t="s">
+        <v>5098</v>
+      </c>
+      <c r="C2578" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2578" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2578" s="2" t="s">
+        <v>5099</v>
+      </c>
+      <c r="F2578" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:6">
+      <c r="A2579" s="2" t="s">
+        <v>5100</v>
+      </c>
+      <c r="B2579" s="2" t="s">
+        <v>5101</v>
+      </c>
+      <c r="C2579" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2579" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E2579" s="2" t="s">
+        <v>5102</v>
+      </c>
+      <c r="F2579" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:6">
+      <c r="A2580" s="2" t="s">
+        <v>5103</v>
+      </c>
+      <c r="B2580" s="2" t="s">
+        <v>5104</v>
+      </c>
+      <c r="C2580" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2580" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E2580" s="2" t="s">
+        <v>5105</v>
+      </c>
+      <c r="F2580" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:6">
+      <c r="A2581" s="2" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B2581" s="2" t="s">
+        <v>5107</v>
+      </c>
+      <c r="C2581" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2581" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E2581" s="2" t="s">
+        <v>5108</v>
+      </c>
+      <c r="F2581" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:6">
+      <c r="A2582" s="2" t="s">
+        <v>5109</v>
+      </c>
+      <c r="B2582" s="2" t="s">
+        <v>5110</v>
+      </c>
+      <c r="C2582" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2582" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E2582" s="2" t="s">
+        <v>5111</v>
+      </c>
+      <c r="F2582" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:6">
+      <c r="A2583" s="2" t="s">
+        <v>5112</v>
+      </c>
+      <c r="B2583" s="2" t="s">
+        <v>5113</v>
+      </c>
+      <c r="C2583" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2583" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E2583" s="2" t="s">
+        <v>5114</v>
+      </c>
+      <c r="F2583" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:6">
+      <c r="A2584" s="2" t="s">
+        <v>5115</v>
+      </c>
+      <c r="B2584" s="2" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C2584" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2584" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2584" s="2" t="s">
+        <v>5117</v>
+      </c>
+      <c r="F2584" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:6">
+      <c r="A2585" s="2" t="s">
+        <v>5118</v>
+      </c>
+      <c r="B2585" s="2" t="s">
+        <v>5119</v>
+      </c>
+      <c r="C2585" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2585" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2585" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2585" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:6">
+      <c r="A2586" s="2" t="s">
+        <v>5120</v>
+      </c>
+      <c r="B2586" s="2" t="s">
+        <v>5121</v>
+      </c>
+      <c r="C2586" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2586" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2586" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2586" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:6">
+      <c r="A2587" s="2" t="s">
+        <v>5122</v>
+      </c>
+      <c r="B2587" s="2" t="s">
+        <v>5123</v>
+      </c>
+      <c r="C2587" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2587" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2587" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2587" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:6">
+      <c r="A2588" s="2" t="s">
+        <v>5124</v>
+      </c>
+      <c r="B2588" s="2" t="s">
+        <v>5125</v>
+      </c>
+      <c r="C2588" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2588" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2588" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2588" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:6">
+      <c r="A2589" s="2" t="s">
+        <v>5126</v>
+      </c>
+      <c r="B2589" s="2" t="s">
+        <v>5127</v>
+      </c>
+      <c r="C2589" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2589" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2589" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2589" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:6">
+      <c r="A2590" s="2" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B2590" s="2" t="s">
+        <v>5128</v>
+      </c>
+      <c r="C2590" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2590" s="2" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E2590" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2590" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:6">
+      <c r="A2591" s="2" t="s">
+        <v>5129</v>
+      </c>
+      <c r="B2591" s="2" t="s">
+        <v>5130</v>
+      </c>
+      <c r="C2591" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2591" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E2591" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2591" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:6">
+      <c r="A2592" s="2" t="s">
+        <v>5131</v>
+      </c>
+      <c r="B2592" s="2" t="s">
+        <v>5132</v>
+      </c>
+      <c r="C2592" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2592" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E2592" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2592" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:6">
+      <c r="A2593" s="2" t="s">
+        <v>5133</v>
+      </c>
+      <c r="B2593" s="2" t="s">
+        <v>5134</v>
+      </c>
+      <c r="C2593" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2593" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E2593" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2593" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:6">
+      <c r="A2594" s="2" t="s">
+        <v>5135</v>
+      </c>
+      <c r="B2594" s="2" t="s">
+        <v>5136</v>
+      </c>
+      <c r="C2594" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2594" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E2594" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2594" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:6">
+      <c r="A2595" s="2" t="s">
+        <v>5137</v>
+      </c>
+      <c r="B2595" s="2" t="s">
+        <v>5138</v>
+      </c>
+      <c r="C2595" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2595" s="2" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E2595" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2595" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:6">
+      <c r="A2596" s="2" t="s">
+        <v>5139</v>
+      </c>
+      <c r="B2596" s="2" t="s">
+        <v>5140</v>
+      </c>
+      <c r="C2596" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2596" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E2596" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2596" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:6">
+      <c r="A2597" s="2" t="s">
+        <v>5141</v>
+      </c>
+      <c r="B2597" s="2" t="s">
+        <v>5142</v>
+      </c>
+      <c r="C2597" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2597" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2597" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2597" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:6">
+      <c r="A2598" s="2" t="s">
+        <v>5143</v>
+      </c>
+      <c r="B2598" s="2" t="s">
+        <v>5144</v>
+      </c>
+      <c r="C2598" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2598" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2598" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2598" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:6">
+      <c r="A2599" s="2" t="s">
+        <v>5145</v>
+      </c>
+      <c r="B2599" s="2" t="s">
+        <v>5146</v>
+      </c>
+      <c r="C2599" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2599" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2599" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2599" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:6">
+      <c r="A2600" s="2" t="s">
+        <v>5147</v>
+      </c>
+      <c r="B2600" s="2" t="s">
+        <v>5148</v>
+      </c>
+      <c r="C2600" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2600" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2600" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2600" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:6">
+      <c r="A2601" s="2" t="s">
+        <v>5149</v>
+      </c>
+      <c r="B2601" s="2" t="s">
+        <v>5150</v>
+      </c>
+      <c r="C2601" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2601" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2601" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2601" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:6">
+      <c r="A2602" s="2" t="s">
+        <v>5151</v>
+      </c>
+      <c r="B2602" s="2" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C2602" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2602" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2602" s="2" t="s">
+        <v>5069</v>
+      </c>
+      <c r="F2602" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:6">
+      <c r="A2603" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B2603" s="2" t="s">
+        <v>5153</v>
+      </c>
+      <c r="C2603" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2603" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2603" s="2" t="s">
+        <v>5072</v>
+      </c>
+      <c r="F2603" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:6">
+      <c r="A2604" s="2" t="s">
+        <v>5154</v>
+      </c>
+      <c r="B2604" s="2" t="s">
+        <v>5155</v>
+      </c>
+      <c r="C2604" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2604" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2604" s="2" t="s">
+        <v>5072</v>
+      </c>
+      <c r="F2604" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:6">
+      <c r="A2605" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B2605" s="2" t="s">
+        <v>5156</v>
+      </c>
+      <c r="C2605" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2605" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2605" s="2" t="s">
+        <v>5077</v>
+      </c>
+      <c r="F2605" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:6">
+      <c r="A2606" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B2606" s="2" t="s">
+        <v>5157</v>
+      </c>
+      <c r="C2606" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2606" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2606" s="2" t="s">
+        <v>5080</v>
+      </c>
+      <c r="F2606" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:6">
+      <c r="A2607" s="2" t="s">
+        <v>5158</v>
+      </c>
+      <c r="B2607" s="2" t="s">
+        <v>5159</v>
+      </c>
+      <c r="C2607" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2607" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2607" s="2" t="s">
+        <v>5083</v>
+      </c>
+      <c r="F2607" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:6">
+      <c r="A2608" s="2" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B2608" s="2" t="s">
+        <v>5160</v>
+      </c>
+      <c r="C2608" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2608" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2608" s="2" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F2608" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:6">
+      <c r="A2609" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B2609" s="2" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C2609" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2609" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2609" s="2" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F2609" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:6">
+      <c r="A2610" s="2" t="s">
+        <v>5162</v>
+      </c>
+      <c r="B2610" s="2" t="s">
+        <v>5163</v>
+      </c>
+      <c r="C2610" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2610" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2610" s="2" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F2610" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:6">
+      <c r="A2611" s="2" t="s">
+        <v>5164</v>
+      </c>
+      <c r="B2611" s="2" t="s">
+        <v>5165</v>
+      </c>
+      <c r="C2611" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2611" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2611" s="2" t="s">
+        <v>5086</v>
+      </c>
+      <c r="F2611" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:6">
+      <c r="A2612" s="2" t="s">
+        <v>5166</v>
+      </c>
+      <c r="B2612" s="2" t="s">
+        <v>5167</v>
+      </c>
+      <c r="C2612" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2612" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2612" s="2" t="s">
+        <v>5099</v>
+      </c>
+      <c r="F2612" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:6">
+      <c r="A2613" s="2" t="s">
+        <v>5168</v>
+      </c>
+      <c r="B2613" s="2" t="s">
+        <v>5169</v>
+      </c>
+      <c r="C2613" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2613" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E2613" s="2" t="s">
+        <v>5170</v>
+      </c>
+      <c r="F2613" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:6">
+      <c r="A2614" s="2" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B2614" s="2" t="s">
+        <v>5172</v>
+      </c>
+      <c r="C2614" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2614" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2614" s="2" t="s">
+        <v>5105</v>
+      </c>
+      <c r="F2614" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:6">
+      <c r="A2615" s="2" t="s">
+        <v>5173</v>
+      </c>
+      <c r="B2615" s="2" t="s">
+        <v>5172</v>
+      </c>
+      <c r="C2615" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2615" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2615" s="2" t="s">
+        <v>5174</v>
+      </c>
+      <c r="F2615" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:6">
+      <c r="A2616" s="2" t="s">
+        <v>5175</v>
+      </c>
+      <c r="B2616" s="2" t="s">
+        <v>5176</v>
+      </c>
+      <c r="C2616" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2616" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E2616" s="2" t="s">
+        <v>5108</v>
+      </c>
+      <c r="F2616" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:6">
+      <c r="A2617" s="2" t="s">
+        <v>5177</v>
+      </c>
+      <c r="B2617" s="2" t="s">
+        <v>5178</v>
+      </c>
+      <c r="C2617" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2617" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E2617" s="2" t="s">
+        <v>5111</v>
+      </c>
+      <c r="F2617" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:6">
+      <c r="A2618" s="2" t="s">
+        <v>5179</v>
+      </c>
+      <c r="B2618" s="2" t="s">
+        <v>5180</v>
+      </c>
+      <c r="C2618" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2618" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2618" s="2" t="s">
+        <v>5117</v>
+      </c>
+      <c r="F2618" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:6">
+      <c r="A2619" s="2" t="s">
+        <v>5181</v>
+      </c>
+      <c r="B2619" s="2" t="s">
+        <v>5182</v>
+      </c>
+      <c r="C2619" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2619" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2619" s="2" t="s">
+        <v>5069</v>
+      </c>
+      <c r="F2619" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:6">
+      <c r="A2620" s="2" t="s">
+        <v>5183</v>
+      </c>
+      <c r="B2620" s="2" t="s">
+        <v>5184</v>
+      </c>
+      <c r="C2620" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2620" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2620" s="2" t="s">
+        <v>5072</v>
+      </c>
+      <c r="F2620" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:6">
+      <c r="A2621" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B2621" s="2" t="s">
+        <v>5185</v>
+      </c>
+      <c r="C2621" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2621" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2621" s="2" t="s">
+        <v>5072</v>
+      </c>
+      <c r="F2621" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:6">
+      <c r="A2622" s="2" t="s">
+        <v>5186</v>
+      </c>
+      <c r="B2622" s="2" t="s">
+        <v>5187</v>
+      </c>
+      <c r="C2622" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2622" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2622" s="2" t="s">
+        <v>5077</v>
+      </c>
+      <c r="F2622" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:6">
+      <c r="A2623" s="2" t="s">
+        <v>5188</v>
+      </c>
+      <c r="B2623" s="2" t="s">
+        <v>5189</v>
+      </c>
+      <c r="C2623" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2623" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2623" s="2" t="s">
+        <v>5080</v>
+      </c>
+      <c r="F2623" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:6">
+      <c r="A2624" s="2" t="s">
+        <v>5190</v>
+      </c>
+      <c r="B2624" s="2" t="s">
+        <v>5191</v>
+      </c>
+      <c r="C2624" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2624" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2624" s="2" t="s">
+        <v>5083</v>
+      </c>
+      <c r="F2624" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:6">
+      <c r="A2625" s="2" t="s">
+        <v>5192</v>
+      </c>
+      <c r="B2625" s="2" t="s">
+        <v>5193</v>
+      </c>
+      <c r="C2625" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2625" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2625" s="2" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F2625" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:6">
+      <c r="A2626" s="2" t="s">
+        <v>5194</v>
+      </c>
+      <c r="B2626" s="2" t="s">
+        <v>5195</v>
+      </c>
+      <c r="C2626" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2626" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2626" s="2" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F2626" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:6">
+      <c r="A2627" s="2" t="s">
+        <v>5196</v>
+      </c>
+      <c r="B2627" s="2" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C2627" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2627" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2627" s="2" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F2627" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:6">
+      <c r="A2628" s="2" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B2628" s="2" t="s">
+        <v>5198</v>
+      </c>
+      <c r="C2628" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2628" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2628" s="2" t="s">
+        <v>5086</v>
+      </c>
+      <c r="F2628" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:6">
+      <c r="A2629" s="2" t="s">
+        <v>5199</v>
+      </c>
+      <c r="B2629" s="2" t="s">
+        <v>5200</v>
+      </c>
+      <c r="C2629" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2629" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2629" s="2" t="s">
+        <v>5099</v>
+      </c>
+      <c r="F2629" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:6">
+      <c r="A2630" s="2" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B2630" s="2" t="s">
+        <v>5202</v>
+      </c>
+      <c r="C2630" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2630" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2630" s="2" t="s">
+        <v>5170</v>
+      </c>
+      <c r="F2630" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:6">
+      <c r="A2631" s="2" t="s">
+        <v>5203</v>
+      </c>
+      <c r="B2631" s="2" t="s">
+        <v>5204</v>
+      </c>
+      <c r="C2631" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2631" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2631" s="2" t="s">
+        <v>5105</v>
+      </c>
+      <c r="F2631" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:6">
+      <c r="A2632" s="2" t="s">
+        <v>5205</v>
+      </c>
+      <c r="B2632" s="2" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C2632" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2632" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2632" s="2" t="s">
+        <v>5174</v>
+      </c>
+      <c r="F2632" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:6">
+      <c r="A2633" s="2" t="s">
+        <v>5207</v>
+      </c>
+      <c r="B2633" s="2" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C2633" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2633" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2633" s="2" t="s">
+        <v>5108</v>
+      </c>
+      <c r="F2633" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:6">
+      <c r="A2634" s="2" t="s">
+        <v>5209</v>
+      </c>
+      <c r="B2634" s="2" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C2634" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2634" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2634" s="2" t="s">
+        <v>5111</v>
+      </c>
+      <c r="F2634" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:6">
+      <c r="A2635" s="2" t="s">
+        <v>5211</v>
+      </c>
+      <c r="B2635" s="2" t="s">
+        <v>5212</v>
+      </c>
+      <c r="C2635" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2635" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2635" s="2" t="s">
+        <v>5117</v>
+      </c>
+      <c r="F2635" s="2" t="s">
         <v>205</v>
       </c>
     </row>
